--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1055,10 +1067,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1102,28 +1114,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1148,28 +1160,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1344,10 +1356,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1391,28 +1403,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1437,28 +1449,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1604,10 +1616,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1651,28 +1663,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1697,28 +1709,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1806,10 +1818,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1853,28 +1865,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1899,28 +1911,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2182,10 +2194,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2229,28 +2241,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2275,28 +2287,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2413,10 +2425,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2460,28 +2472,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2506,28 +2518,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2760,10 +2772,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2807,28 +2819,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2853,28 +2865,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3049,10 +3061,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3096,28 +3108,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3142,28 +3154,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3367,10 +3379,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3414,28 +3426,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3460,28 +3472,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3656,10 +3668,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3703,28 +3715,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3749,28 +3761,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3887,10 +3899,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3934,28 +3946,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3980,28 +3992,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4147,10 +4159,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4194,28 +4206,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4240,28 +4252,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4349,10 +4361,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4396,28 +4408,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4442,28 +4454,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4667,10 +4679,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4714,28 +4726,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4760,28 +4772,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4927,10 +4939,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4974,28 +4986,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5020,28 +5032,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5187,10 +5199,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5234,28 +5246,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5280,28 +5292,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5534,10 +5546,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5581,28 +5593,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5627,28 +5639,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5794,10 +5806,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5841,28 +5853,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5887,28 +5899,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5967,10 +5979,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6014,28 +6026,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6060,28 +6072,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6140,10 +6152,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6187,28 +6199,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6233,28 +6245,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6313,10 +6325,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6360,28 +6372,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6406,28 +6418,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6515,10 +6527,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
